--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\timeSync论文库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\论文\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1D2E1-F42C-4F49-9924-891F89EFCD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9928-E417-46D1-A9D4-DA9AE1B22736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Automotive" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -722,17 +722,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1025,7 +1015,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1550,6 +1540,9 @@
       </c>
       <c r="F8" s="3">
         <v>2015</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>148</v>
@@ -1967,7 +1960,7 @@
   <autoFilter ref="A1:O1" xr:uid="{4DDCB2AC-ABB1-420B-99BC-4D6A9766867A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\论文\Time-Synchronization-Paper-Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9928-E417-46D1-A9D4-DA9AE1B22736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48F2A5-5550-45B6-9542-BBE83044BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Automotive" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="154">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,33 +589,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TA+PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved Clock Synchronization Start-Up Time for Ethernet AVB-Based In-Vehicle Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diarra, A. and Hogenmueller, T. and Zimmermann, A. and Grzemba, A. and Khan, U. A. and Ieee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of 2015 Ieee 20th Conference on Emerging Technologies &amp; Factory Automation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">formal mathematical analysis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formal mathematical analysis and simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>efficiency</t>
-  </si>
-  <si>
-    <t>TA+PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formal mathematical analysis and proof of properties</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>the proposed method can resynchronize the network faster than the existing BMCA.</t>
-  </si>
-  <si>
-    <t>Improved Clock Synchronization Start-Up Time for Ethernet AVB-Based In-Vehicle Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diarra, A. and Hogenmueller, T. and Zimmermann, A. and Grzemba, A. and Khan, U. A. and Ieee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceedings of 2015 Ieee 20th Conference on Emerging Technologies &amp; Factory Automation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Clock Synchronization Start-Up Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurements on real implementations are planned to assess the real results.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">proposed several ways to reduce synchronization start-up time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Modification of Sync frame size for neighbor rate ratio calculation      2.One-Step Messaging             3.Peer delay mechanism omission </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1011,11 +1030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>50</v>
       </c>
@@ -1485,7 +1504,7 @@
       <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1495,19 +1514,19 @@
         <v>141</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>83</v>
+      <c r="R7" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>80</v>
@@ -1522,15 +1541,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1545,18 +1564,53 @@
         <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I8" s="3">
         <v>8</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y1" xr:uid="{A95080F3-5F0B-4AF5-B3D9-801697F94E6F}"/>

--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48F2A5-5550-45B6-9542-BBE83044BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E57A6A-2329-4AD6-96F8-BDFDD7395899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -634,6 +634,40 @@
   </si>
   <si>
     <t xml:space="preserve">1.Modification of Sync frame size for neighbor rate ratio calculation      2.One-Step Messaging             3.Peer delay mechanism omission </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Synchronization Method of IEEE 802.1AS through Automatic Optimal Sync Message Period Adjustment for In-Car Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim, Y. J. and Cheon, B. M. and Kim, J. H. and Jean, J. W. and Ieee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 Ieee International Conference on Information and Automation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE+HW+purely real data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronization error                         minimize the traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimize the traffic of the entire 
+network in order to optimally maintain the synchronization 
+performance of a node.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of sync messages to be transmitted from the master are automatically adjusted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +775,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1028,13 +1072,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>50</v>
       </c>
@@ -1541,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>54</v>
       </c>
@@ -1610,6 +1654,77 @@
       </c>
       <c r="W8" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2129,7 @@
   <autoFilter ref="A1:O1" xr:uid="{4DDCB2AC-ABB1-420B-99BC-4D6A9766867A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E57A6A-2329-4AD6-96F8-BDFDD7395899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52793C-D8BA-4D43-9FEE-29B39F9B5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="172">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -668,6 +668,46 @@
   </si>
   <si>
     <t>the number of sync messages to be transmitted from the master are automatically adjusted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An AUTOSAR Based Approach to Time Synchronize In-Vehicle ECUs in Mixed Network Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isac, Sinu and Chaudhari, Nayana P. and Ananthoju, Kalyan Chakravarthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAE 16th Symposium on International Automotive Technology, SIAT 2019, January 16, 2019 - January 19, 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802.1AS-Rev CAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> This paper describes how time gateway can be configured for synchronizing nodes on CAN and Ethernet Networks. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bench simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,13 +1112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1517,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="162" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>50</v>
       </c>
@@ -1548,7 +1588,7 @@
       <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1560,13 +1600,13 @@
       <c r="O7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -1585,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="162" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>54</v>
       </c>
@@ -1616,7 +1656,7 @@
       <c r="J8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1631,13 +1671,13 @@
       <c r="O8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="6" t="s">
         <v>147</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -1687,7 +1727,7 @@
       <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1702,13 +1742,13 @@
       <c r="O9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="6" t="s">
         <v>123</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -1725,6 +1765,56 @@
       </c>
       <c r="W9" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52793C-D8BA-4D43-9FEE-29B39F9B5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21C158-A9DF-447E-B236-ADF4FB617942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,6 +708,29 @@
   </si>
   <si>
     <t>example analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Efficiency Due to a Common Global Timebase-Synchronizing FlexRay to 802.1AS Networks as a Foundation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milbredt, P. and Schick, E. and Hubner, M.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of Low Power Electronics and Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Synchronizing legacy FlexRay networks to the upcoming Ethernet backbone</t>
+  </si>
+  <si>
+    <t>验证方法可参考借鉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" ht="162" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>50</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="162" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>54</v>
       </c>
@@ -1815,6 +1838,59 @@
       </c>
       <c r="W10" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/ExtractedData.xlsx
+++ b/ExtractedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21C158-A9DF-447E-B236-ADF4FB617942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2CB9D6-ECDA-443A-B60F-28056B258E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="184">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -731,6 +731,30 @@
   </si>
   <si>
     <t>验证方法可参考借鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance of IEEE 802.1AS for automotive system using hardware timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yong Ju, Kim and Jin Ho, Kim and Bo Mu, Cheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 International Symposium on Consumer Electronics (ICSE), 22-25 June 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presents the measured performance of the IEEE 802.1AS standard using hardware-assisted time stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronization OFFSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1373,7 @@
         <v>72</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>103</v>
@@ -1840,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>105</v>
       </c>
@@ -1891,6 +1915,65 @@
       </c>
       <c r="X11" s="3" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
